--- a/Lab2/FFT_Library_test_optical.xlsx
+++ b/Lab2/FFT_Library_test_optical.xlsx
@@ -8,19 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/april/ece3400/purplecobras/Lab2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DFFCC61A-D957-2E4D-83B6-0A35562CDF3A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{224D057B-6B64-0F47-9378-1BA92641D6F1}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14180" xr2:uid="{1303E45D-02A6-2642-84CE-988F23C57880}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!#REF!</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$1:$B$130</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!#REF!</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$B$1:$B$130</definedName>
-  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -28,10 +22,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -99,6 +89,28 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Optical FFT Data</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1873,6 +1885,7 @@
         <c:crossAx val="1924112687"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="5"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="1924112687"/>
@@ -1897,55 +1910,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>idk what this is...</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2594,16 +2558,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>679450</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>387350</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>298450</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
